--- a/Layout - Projeto Integrador.xlsx
+++ b/Layout - Projeto Integrador.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">PROJETO INTEGRADOR</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Web Bot</t>
   </si>
   <si>
-    <t xml:space="preserve">(Nome do WEB BOT)</t>
+    <t xml:space="preserve">HeySeries </t>
   </si>
   <si>
     <t xml:space="preserve">MVP:</t>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Nosso projeto consiste em coletar dados diversos em multiplas plataformas online, de entretenimento cinematografico, para construir um banco de dados, com um ou mais filtros, visando otimizar a experiencia do usuario da plataforma, no que diz respeito: a indicação de series.</t>
   </si>
   <si>
-    <t xml:space="preserve">Requisitos:</t>
+    <t xml:space="preserve">Requisitos de sistema:</t>
   </si>
   <si>
     <r>
@@ -50,7 +50,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -60,12 +59,26 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">• BANCO DE DADOS -  PARA ARMAZENAR OS DADOS                                               • ALGORITMO CAPAZ DE CONVERTER AS NOTAS E RANKEAR A PARTIR DELAS    • FUNCIONALIDADE DE SCRAPING DENTRO WEB BOT                                               • INTERFACE - P/ INTERAÇAO DO USUARIO                                                                  • FUNCIONALIDADE DE FILTRAGEM (GENERO E NOTAS)</t>
+      <t xml:space="preserve">BANCO DE DADOS -  PARA ARMAZENAR OS DADOS                                                           ALGORITMO CAPAZ DE CONVERTER AS NOTAS E RANKEAR A PARTIR DELAS     FUNCIONALIDADE DE SCRAPING DENTRO WEB BOT                                                INTERFACE - P/ INTERAÇAO DO USUARIO                                                                   FUNCIONALIDADE DE FILTRAGEM (GENERO E NOTAS)</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">BANCO DE DADOS -  PARA ARMAZENAR OS DADOS    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALGORITMO CAPAZ DE CONVERTER AS NOTAS E RANKEAR A PARTIR DELAS    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FUNCIONALIDADE DE SCRAPING DENTRO WEB BOT       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   INTERFACE - P/ INTERAÇAO DO USUARIO  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      FUNCIONALIDADE DE FILTRAGEM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Criação</t>
   </si>
   <si>
@@ -85,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">Paulo / Jessica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                       (GENERO E NOTAS)</t>
   </si>
 </sst>
 </file>
@@ -95,13 +111,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -117,6 +132,83 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -124,7 +216,6 @@
       <color rgb="FF000000"/>
       <name val="Aharoni"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -132,7 +223,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -140,7 +230,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri Light"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -148,7 +237,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri Light"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -156,7 +244,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -165,13 +252,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="Calibri"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -179,22 +264,68 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -211,11 +342,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -224,6 +355,21 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="medium"/>
       <top style="medium"/>
@@ -336,7 +482,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -360,25 +506,76 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -386,39 +583,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -426,89 +623,122 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="10" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="10" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="9" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="9" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF0000EE"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFF2F2F2"/>
-      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -528,7 +758,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -540,7 +770,7 @@
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF4C4C4C"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
@@ -563,7 +793,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>564840</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -577,7 +807,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="41760" y="23760"/>
-          <a:ext cx="1281600" cy="355680"/>
+          <a:ext cx="1281600" cy="354960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -599,14 +829,14 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.53"/>
   </cols>
   <sheetData>
@@ -850,7 +1080,9 @@
       <c r="I23" s="15"/>
     </row>
     <row r="24" s="13" customFormat="true" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19"/>
+      <c r="A24" s="19" t="s">
+        <v>6</v>
+      </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
@@ -862,7 +1094,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -871,160 +1103,173 @@
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="24"/>
-      <c r="G39" s="25" t="s">
-        <v>10</v>
+      <c r="A39" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="26"/>
+      <c r="C39" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="27"/>
+      <c r="G39" s="28" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="27"/>
-      <c r="G40" s="28" t="n">
+      <c r="A40" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="29"/>
+      <c r="C40" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="30"/>
+      <c r="G40" s="31" t="n">
         <v>43708</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="32" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="29">
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G2"/>
     <mergeCell ref="A3:G3"/>
@@ -1034,7 +1279,20 @@
     <mergeCell ref="A8:G21"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A25:G38"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A38:G38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="E39:F39"/>
